--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Myoc-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Myoc-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Fzd4</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1664173333333333</v>
+        <v>0.1603853333333333</v>
       </c>
       <c r="H2">
-        <v>0.499252</v>
+        <v>0.481156</v>
       </c>
       <c r="I2">
-        <v>0.009928329481286188</v>
+        <v>0.01032935781992836</v>
       </c>
       <c r="J2">
-        <v>0.01026989293949489</v>
+        <v>0.01042870175281933</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.22839533333334</v>
+        <v>19.524618</v>
       </c>
       <c r="N2">
-        <v>87.685186</v>
+        <v>58.573854</v>
       </c>
       <c r="O2">
-        <v>0.4452121315669254</v>
+        <v>0.4154885426712971</v>
       </c>
       <c r="P2">
-        <v>0.498852598788108</v>
+        <v>0.4539723485554654</v>
       </c>
       <c r="Q2">
-        <v>4.864111608985778</v>
+        <v>3.131462366136</v>
       </c>
       <c r="R2">
-        <v>43.777004480872</v>
+        <v>28.183161295224</v>
       </c>
       <c r="S2">
-        <v>0.004420212731262169</v>
+        <v>0.004291729827332402</v>
       </c>
       <c r="T2">
-        <v>0.005123162782142667</v>
+        <v>0.004734342227111893</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1664173333333333</v>
+        <v>0.1603853333333333</v>
       </c>
       <c r="H3">
-        <v>0.499252</v>
+        <v>0.481156</v>
       </c>
       <c r="I3">
-        <v>0.009928329481286188</v>
+        <v>0.01032935781992836</v>
       </c>
       <c r="J3">
-        <v>0.01026989293949489</v>
+        <v>0.01042870175281933</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.24435933333333</v>
+        <v>15.24435933333334</v>
       </c>
       <c r="N3">
-        <v>45.733078</v>
+        <v>45.73307800000001</v>
       </c>
       <c r="O3">
-        <v>0.232204800700274</v>
+        <v>0.324403614112412</v>
       </c>
       <c r="P3">
-        <v>0.2601815181287207</v>
+        <v>0.3544508583357054</v>
       </c>
       <c r="Q3">
-        <v>2.536925628628445</v>
+        <v>2.444971653129778</v>
       </c>
       <c r="R3">
-        <v>22.832330657656</v>
+        <v>22.004744878168</v>
       </c>
       <c r="S3">
-        <v>0.002305405768488714</v>
+        <v>0.003350881008245065</v>
       </c>
       <c r="T3">
-        <v>0.00267203633601721</v>
+        <v>0.003696462287613889</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1664173333333333</v>
+        <v>0.1603853333333333</v>
       </c>
       <c r="H4">
-        <v>0.499252</v>
+        <v>0.481156</v>
       </c>
       <c r="I4">
-        <v>0.009928329481286188</v>
+        <v>0.01032935781992836</v>
       </c>
       <c r="J4">
-        <v>0.01026989293949489</v>
+        <v>0.01042870175281933</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.177737</v>
+        <v>11.9507005</v>
       </c>
       <c r="N4">
-        <v>42.355474</v>
+        <v>23.901401</v>
       </c>
       <c r="O4">
-        <v>0.3225830677328007</v>
+        <v>0.2543137660693869</v>
       </c>
       <c r="P4">
-        <v>0.2409658830831714</v>
+        <v>0.1852460510065796</v>
       </c>
       <c r="Q4">
-        <v>3.524342517574667</v>
+        <v>1.916717083259333</v>
       </c>
       <c r="R4">
-        <v>21.146055105448</v>
+        <v>11.500302499556</v>
       </c>
       <c r="S4">
-        <v>0.003202710981535305</v>
+        <v>0.002626897888264254</v>
       </c>
       <c r="T4">
-        <v>0.002474693821335013</v>
+        <v>0.001931875816835177</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>14.92301466666667</v>
+        <v>0.1603853333333333</v>
       </c>
       <c r="H5">
-        <v>44.76904399999999</v>
+        <v>0.481156</v>
       </c>
       <c r="I5">
-        <v>0.8902955208876449</v>
+        <v>0.01032935781992836</v>
       </c>
       <c r="J5">
-        <v>0.920924280490686</v>
+        <v>0.01042870175281933</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>29.22839533333334</v>
+        <v>0.272275</v>
       </c>
       <c r="N5">
-        <v>87.685186</v>
+        <v>0.816825</v>
       </c>
       <c r="O5">
-        <v>0.4452121315669254</v>
+        <v>0.005794077146903843</v>
       </c>
       <c r="P5">
-        <v>0.498852598788108</v>
+        <v>0.006330742102249548</v>
       </c>
       <c r="Q5">
-        <v>436.1757722424649</v>
+        <v>0.04366891663333333</v>
       </c>
       <c r="R5">
-        <v>3925.581950182183</v>
+        <v>0.3930202497</v>
       </c>
       <c r="S5">
-        <v>0.3963703665788745</v>
+        <v>5.984909608663941E-05</v>
       </c>
       <c r="T5">
-        <v>0.4594054706098472</v>
+        <v>6.602142125837701E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,10 +791,10 @@
         <v>44.76904399999999</v>
       </c>
       <c r="I6">
-        <v>0.8902955208876449</v>
+        <v>0.9610926076617912</v>
       </c>
       <c r="J6">
-        <v>0.920924280490686</v>
+        <v>0.9703360399430661</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.24435933333333</v>
+        <v>19.524618</v>
       </c>
       <c r="N6">
-        <v>45.733078</v>
+        <v>58.573854</v>
       </c>
       <c r="O6">
-        <v>0.232204800700274</v>
+        <v>0.4154885426712971</v>
       </c>
       <c r="P6">
-        <v>0.2601815181287207</v>
+        <v>0.4539723485554654</v>
       </c>
       <c r="Q6">
-        <v>227.4917979152702</v>
+        <v>291.366160775064</v>
       </c>
       <c r="R6">
-        <v>2047.426181237432</v>
+        <v>2622.295446975575</v>
       </c>
       <c r="S6">
-        <v>0.2067308939920622</v>
+        <v>0.3993229669295544</v>
       </c>
       <c r="T6">
-        <v>0.2396074773796665</v>
+        <v>0.4405057309409636</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,45 +853,45 @@
         <v>44.76904399999999</v>
       </c>
       <c r="I7">
-        <v>0.8902955208876449</v>
+        <v>0.9610926076617912</v>
       </c>
       <c r="J7">
-        <v>0.920924280490686</v>
+        <v>0.9703360399430661</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.177737</v>
+        <v>15.24435933333334</v>
       </c>
       <c r="N7">
-        <v>42.355474</v>
+        <v>45.73307800000001</v>
       </c>
       <c r="O7">
-        <v>0.3225830677328007</v>
+        <v>0.324403614112412</v>
       </c>
       <c r="P7">
-        <v>0.2409658830831714</v>
+        <v>0.3544508583357054</v>
       </c>
       <c r="Q7">
-        <v>316.0356798578093</v>
+        <v>227.4917979152702</v>
       </c>
       <c r="R7">
-        <v>1896.214079146856</v>
+        <v>2047.426181237432</v>
       </c>
       <c r="S7">
-        <v>0.2871942603167082</v>
+        <v>0.3117819154222075</v>
       </c>
       <c r="T7">
-        <v>0.2219113325011724</v>
+        <v>0.3439364422318891</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,60 +900,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>14.92301466666667</v>
+      </c>
+      <c r="H8">
+        <v>44.76904399999999</v>
+      </c>
+      <c r="I8">
+        <v>0.9610926076617912</v>
+      </c>
+      <c r="J8">
+        <v>0.9703360399430661</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.6724345</v>
-      </c>
-      <c r="H8">
-        <v>3.344869</v>
-      </c>
-      <c r="I8">
-        <v>0.09977614963106883</v>
-      </c>
-      <c r="J8">
-        <v>0.06880582656981911</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.22839533333334</v>
+        <v>11.9507005</v>
       </c>
       <c r="N8">
-        <v>87.685186</v>
+        <v>23.901401</v>
       </c>
       <c r="O8">
-        <v>0.4452121315669254</v>
+        <v>0.2543137660693869</v>
       </c>
       <c r="P8">
-        <v>0.498852598788108</v>
+        <v>0.1852460510065796</v>
       </c>
       <c r="Q8">
-        <v>48.88257673510567</v>
+        <v>178.3404788384406</v>
       </c>
       <c r="R8">
-        <v>293.295460410634</v>
+        <v>1070.042873030644</v>
       </c>
       <c r="S8">
-        <v>0.04442155225678865</v>
+        <v>0.2444190805959178</v>
       </c>
       <c r="T8">
-        <v>0.03432396539611812</v>
+        <v>0.1797509195488157</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>14.92301466666667</v>
+      </c>
+      <c r="H9">
+        <v>44.76904399999999</v>
+      </c>
+      <c r="I9">
+        <v>0.9610926076617912</v>
+      </c>
+      <c r="J9">
+        <v>0.9703360399430661</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.6724345</v>
-      </c>
-      <c r="H9">
-        <v>3.344869</v>
-      </c>
-      <c r="I9">
-        <v>0.09977614963106883</v>
-      </c>
-      <c r="J9">
-        <v>0.06880582656981911</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>15.24435933333333</v>
+        <v>0.272275</v>
       </c>
       <c r="N9">
-        <v>45.733078</v>
+        <v>0.816825</v>
       </c>
       <c r="O9">
-        <v>0.232204800700274</v>
+        <v>0.005794077146903843</v>
       </c>
       <c r="P9">
-        <v>0.2601815181287207</v>
+        <v>0.006330742102249548</v>
       </c>
       <c r="Q9">
-        <v>25.49519247946367</v>
+        <v>4.063163818366666</v>
       </c>
       <c r="R9">
-        <v>152.971154876782</v>
+        <v>36.5684743653</v>
       </c>
       <c r="S9">
-        <v>0.02316850093972306</v>
+        <v>0.005568644714111406</v>
       </c>
       <c r="T9">
-        <v>0.017902004413037</v>
+        <v>0.006142947221397667</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.443735</v>
+      </c>
+      <c r="H10">
+        <v>0.88747</v>
+      </c>
+      <c r="I10">
+        <v>0.02857803451828042</v>
+      </c>
+      <c r="J10">
+        <v>0.01923525830411462</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>19.524618</v>
+      </c>
+      <c r="N10">
+        <v>58.573854</v>
+      </c>
+      <c r="O10">
+        <v>0.4154885426712971</v>
+      </c>
+      <c r="P10">
+        <v>0.4539723485554654</v>
+      </c>
+      <c r="Q10">
+        <v>8.663756368230001</v>
+      </c>
+      <c r="R10">
+        <v>51.98253820938</v>
+      </c>
+      <c r="S10">
+        <v>0.01187384591441036</v>
+      </c>
+      <c r="T10">
+        <v>0.008732275387389936</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.443735</v>
+      </c>
+      <c r="H11">
+        <v>0.88747</v>
+      </c>
+      <c r="I11">
+        <v>0.02857803451828042</v>
+      </c>
+      <c r="J11">
+        <v>0.01923525830411462</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>15.24435933333334</v>
+      </c>
+      <c r="N11">
+        <v>45.73307800000001</v>
+      </c>
+      <c r="O11">
+        <v>0.324403614112412</v>
+      </c>
+      <c r="P11">
+        <v>0.3544508583357054</v>
+      </c>
+      <c r="Q11">
+        <v>6.764455788776668</v>
+      </c>
+      <c r="R11">
+        <v>40.58673473266001</v>
+      </c>
+      <c r="S11">
+        <v>0.009270817681959431</v>
+      </c>
+      <c r="T11">
+        <v>0.006817953816202434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.443735</v>
+      </c>
+      <c r="H12">
+        <v>0.88747</v>
+      </c>
+      <c r="I12">
+        <v>0.02857803451828042</v>
+      </c>
+      <c r="J12">
+        <v>0.01923525830411462</v>
+      </c>
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.6724345</v>
-      </c>
-      <c r="H10">
-        <v>3.344869</v>
-      </c>
-      <c r="I10">
-        <v>0.09977614963106883</v>
-      </c>
-      <c r="J10">
-        <v>0.06880582656981911</v>
-      </c>
-      <c r="K10">
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>11.9507005</v>
+      </c>
+      <c r="N12">
+        <v>23.901401</v>
+      </c>
+      <c r="O12">
+        <v>0.2543137660693869</v>
+      </c>
+      <c r="P12">
+        <v>0.1852460510065796</v>
+      </c>
+      <c r="Q12">
+        <v>5.3029440863675</v>
+      </c>
+      <c r="R12">
+        <v>21.21177634547</v>
+      </c>
+      <c r="S12">
+        <v>0.007267787585204831</v>
+      </c>
+      <c r="T12">
+        <v>0.003563255640928752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.443735</v>
+      </c>
+      <c r="H13">
+        <v>0.88747</v>
+      </c>
+      <c r="I13">
+        <v>0.02857803451828042</v>
+      </c>
+      <c r="J13">
+        <v>0.01923525830411462</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>21.177737</v>
-      </c>
-      <c r="N10">
-        <v>42.355474</v>
-      </c>
-      <c r="O10">
-        <v>0.3225830677328007</v>
-      </c>
-      <c r="P10">
-        <v>0.2409658830831714</v>
-      </c>
-      <c r="Q10">
-        <v>35.4183779907265</v>
-      </c>
-      <c r="R10">
-        <v>141.673511962906</v>
-      </c>
-      <c r="S10">
-        <v>0.03218609643455714</v>
-      </c>
-      <c r="T10">
-        <v>0.016579856760664</v>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.272275</v>
+      </c>
+      <c r="N13">
+        <v>0.816825</v>
+      </c>
+      <c r="O13">
+        <v>0.005794077146903843</v>
+      </c>
+      <c r="P13">
+        <v>0.006330742102249548</v>
+      </c>
+      <c r="Q13">
+        <v>0.120817947125</v>
+      </c>
+      <c r="R13">
+        <v>0.7249076827500001</v>
+      </c>
+      <c r="S13">
+        <v>0.0001655833367057978</v>
+      </c>
+      <c r="T13">
+        <v>0.0001217734595935037</v>
       </c>
     </row>
   </sheetData>
